--- a/data_example2.xlsx
+++ b/data_example2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsven\code\hybrid_energy_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54885B38-090C-4E8E-B5C1-D2E8553FDAF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC37087C-8797-4B28-BFC9-D8ECBABFCAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="2580" windowWidth="23508" windowHeight="13356" xr2:uid="{67DC4D86-39E4-4DA3-B21D-C0F42277600B}"/>
+    <workbookView xWindow="1860" yWindow="60" windowWidth="23508" windowHeight="16356" xr2:uid="{67DC4D86-39E4-4DA3-B21D-C0F42277600B}"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="111">
   <si>
     <t>id</t>
   </si>
@@ -292,9 +292,6 @@
     <t>oil</t>
   </si>
   <si>
-    <t>petroleum</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
@@ -310,12 +307,6 @@
     <t>pump_oil</t>
   </si>
   <si>
-    <t>pressure.petroleum.in</t>
-  </si>
-  <si>
-    <t>pressure.petroleum.out</t>
-  </si>
-  <si>
     <t>pressure.oil.in</t>
   </si>
   <si>
@@ -362,6 +353,24 @@
   </si>
   <si>
     <t>oil export pump</t>
+  </si>
+  <si>
+    <t>water injection</t>
+  </si>
+  <si>
+    <t>well_injection</t>
+  </si>
+  <si>
+    <t>dummy parameters</t>
+  </si>
+  <si>
+    <t>wellstream</t>
+  </si>
+  <si>
+    <t>pressure.wellstream.out</t>
+  </si>
+  <si>
+    <t>pressure.wellstream.in</t>
   </si>
 </sst>
 </file>
@@ -725,7 +734,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,28 +767,28 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -836,7 +845,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>-1</v>
@@ -859,7 +868,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>-1</v>
@@ -882,7 +891,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>-1</v>
@@ -928,7 +937,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <v>-1</v>
@@ -951,7 +960,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B9">
         <v>-1</v>
@@ -1003,7 +1012,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11">
         <v>-1</v>
@@ -1026,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A70904-C380-433D-9493-9658C938F213}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -1108,10 +1117,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1134,10 +1143,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1160,10 +1169,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1186,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -1212,10 +1221,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1238,10 +1247,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1261,7 +1270,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -1293,7 +1302,7 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1319,7 +1328,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1339,13 +1348,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1368,10 +1377,10 @@
         <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1394,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -1420,10 +1429,10 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1446,7 +1455,7 @@
         <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -1491,6 +1500,26 @@
       </c>
       <c r="J17">
         <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -1500,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EB3A90-DDA6-4778-8302-DAD5F7252115}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1593,7 +1622,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -1630,7 +1659,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -1733,7 +1762,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1753,7 +1782,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1779,7 +1808,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1788,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1802,7 +1831,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1811,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1822,7 +1851,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1857,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,7 +1894,7 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1877,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,7 +1931,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -1925,7 +1954,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1945,7 +1974,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
@@ -2052,10 +2081,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2067,15 +2096,15 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2087,10 +2116,39 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H23">
         <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24">
+        <v>0.05</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2159,7 +2217,7 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -2178,13 +2236,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7">
         <v>0.1</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data_example2.xlsx
+++ b/data_example2.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsven\code\hybrid_energy_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC37087C-8797-4B28-BFC9-D8ECBABFCAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B262B525-312E-453A-9F0A-4549EB97BDEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="60" windowWidth="23508" windowHeight="16356" xr2:uid="{67DC4D86-39E4-4DA3-B21D-C0F42277600B}"/>
+    <workbookView xWindow="2868" yWindow="192" windowWidth="24828" windowHeight="16356" activeTab="3" xr2:uid="{67DC4D86-39E4-4DA3-B21D-C0F42277600B}"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
     <sheet name="edge" sheetId="2" r:id="rId2"/>
-    <sheet name="device" sheetId="3" r:id="rId3"/>
-    <sheet name="parameters" sheetId="4" r:id="rId4"/>
-    <sheet name="profiles" sheetId="5" r:id="rId5"/>
-    <sheet name="profiles_forecast" sheetId="6" r:id="rId6"/>
+    <sheet name="device_old" sheetId="3" r:id="rId3"/>
+    <sheet name="device" sheetId="7" r:id="rId4"/>
+    <sheet name="parameters" sheetId="4" r:id="rId5"/>
+    <sheet name="profiles" sheetId="5" r:id="rId6"/>
+    <sheet name="profiles_forecast" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="162">
   <si>
     <t>id</t>
   </si>
@@ -205,9 +206,6 @@
     <t>planning_horizon</t>
   </si>
   <si>
-    <t>minutes</t>
-  </si>
-  <si>
     <t>number of time steps in planning horizon</t>
   </si>
   <si>
@@ -220,9 +218,6 @@
     <t>curve_const</t>
   </si>
   <si>
-    <t>CO2_price</t>
-  </si>
-  <si>
     <t>source_el</t>
   </si>
   <si>
@@ -298,9 +293,6 @@
     <t>process_oil</t>
   </si>
   <si>
-    <t>process_gas</t>
-  </si>
-  <si>
     <t>process_water</t>
   </si>
   <si>
@@ -371,6 +363,168 @@
   </si>
   <si>
     <t>pressure.wellstream.in</t>
+  </si>
+  <si>
+    <t>eta includes pressure difference dependence</t>
+  </si>
+  <si>
+    <t>emissionRateMax</t>
+  </si>
+  <si>
+    <t>kgCO2/hour, -1=no limit</t>
+  </si>
+  <si>
+    <t>minutes, time-step interval</t>
+  </si>
+  <si>
+    <t>export_node</t>
+  </si>
+  <si>
+    <t>name of export node (used for revenue calculation)</t>
+  </si>
+  <si>
+    <t>eta2</t>
+  </si>
+  <si>
+    <t>treatment_gas</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>Objective function to use</t>
+  </si>
+  <si>
+    <t>emissionIntensityMax</t>
+  </si>
+  <si>
+    <t>kgCO2/Sm3oe, -1=no limit</t>
+  </si>
+  <si>
+    <t>exportRevenue</t>
+  </si>
+  <si>
+    <t>co2_tax</t>
+  </si>
+  <si>
+    <t>$/kgCO2</t>
+  </si>
+  <si>
+    <t>seawater inlet</t>
+  </si>
+  <si>
+    <t>source_water</t>
+  </si>
+  <si>
+    <t>curve_declining</t>
+  </si>
+  <si>
+    <t>param_id</t>
+  </si>
+  <si>
+    <t>param_value</t>
+  </si>
+  <si>
+    <t>GT1</t>
+  </si>
+  <si>
+    <t>GT2</t>
+  </si>
+  <si>
+    <t>compr1</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>aux</t>
+  </si>
+  <si>
+    <t>el load</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>heat1</t>
+  </si>
+  <si>
+    <t>water1</t>
+  </si>
+  <si>
+    <t>heat2</t>
+  </si>
+  <si>
+    <t>ex_g</t>
+  </si>
+  <si>
+    <t>ex_o</t>
+  </si>
+  <si>
+    <t>ex_e</t>
+  </si>
+  <si>
+    <t>heat3</t>
+  </si>
+  <si>
+    <t>pump1</t>
+  </si>
+  <si>
+    <t>inj</t>
+  </si>
+  <si>
+    <t>water2</t>
+  </si>
+  <si>
+    <t>kgCO2/MWh electricity</t>
+  </si>
+  <si>
+    <t>MPa</t>
+  </si>
+  <si>
+    <t>MPa, wellhead pressure</t>
+  </si>
+  <si>
+    <t>compr2</t>
+  </si>
+  <si>
+    <t>temp_in</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>isentropic efficiency</t>
+  </si>
+  <si>
+    <t>Q0</t>
+  </si>
+  <si>
+    <t>m3/s - operating point for linearisation - should be computed by program</t>
+  </si>
+  <si>
+    <t>pump efficiency</t>
+  </si>
+  <si>
+    <t>injectionpressure</t>
+  </si>
+  <si>
+    <t>MPa - at least as much as production well pressure</t>
+  </si>
+  <si>
+    <t>Sm3/s (must be between Pmin and Pmax)</t>
+  </si>
+  <si>
+    <t>Pavg</t>
+  </si>
+  <si>
+    <t>MWh (1/2 hour at full power)</t>
+  </si>
+  <si>
+    <t>Sm3/s h (e.g. 1 hour of pumping)</t>
   </si>
 </sst>
 </file>
@@ -394,12 +548,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -414,9 +574,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052C0DB0-0590-4B7A-AC1E-E28475B8C302}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,62 +928,62 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>-0.1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2">
-        <v>600</v>
-      </c>
-      <c r="G2">
-        <v>600</v>
+      <c r="I2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -830,51 +991,39 @@
       <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3">
-        <v>595</v>
-      </c>
-      <c r="I3">
-        <v>590</v>
-      </c>
-      <c r="K3">
-        <v>590</v>
-      </c>
-      <c r="M3">
-        <v>590</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>590</v>
-      </c>
-      <c r="K4">
-        <v>590</v>
+        <v>62</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -882,16 +1031,22 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="J5">
-        <v>590</v>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>1000</v>
+        <v>0.3</v>
+      </c>
+      <c r="M5">
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>-1</v>
@@ -905,16 +1060,16 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="H6">
-        <v>575</v>
-      </c>
-      <c r="I6">
-        <v>575</v>
+      <c r="J6">
+        <v>0.3</v>
+      </c>
+      <c r="K6">
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>-1</v>
@@ -928,16 +1083,16 @@
       <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="H7">
-        <v>550</v>
-      </c>
-      <c r="I7">
-        <v>2800</v>
+      <c r="J7">
+        <v>0.3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>-1</v>
@@ -951,16 +1106,16 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="L8">
-        <v>590</v>
-      </c>
-      <c r="M8">
-        <v>590</v>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B9">
         <v>-1</v>
@@ -975,18 +1130,18 @@
         <v>19</v>
       </c>
       <c r="H9">
-        <v>574.79999999999995</v>
+        <v>9.99</v>
       </c>
       <c r="I9">
-        <v>550</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B10">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -995,27 +1150,21 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10">
-        <v>2770</v>
-      </c>
-      <c r="I10">
-        <v>2770</v>
-      </c>
-      <c r="J10">
-        <v>1000</v>
-      </c>
-      <c r="K10">
-        <v>1000</v>
+        <v>19</v>
+      </c>
+      <c r="L10">
+        <v>0.7</v>
+      </c>
+      <c r="M10">
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1024,7 +1173,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="I11">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1035,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A70904-C380-433D-9493-9658C938F213}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,10 +1252,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1117,10 +1278,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1143,10 +1304,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1169,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1195,10 +1356,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1221,10 +1382,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1247,10 +1408,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1270,39 +1431,30 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>10000</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1311,7 +1463,7 @@
         <v>10000</v>
       </c>
       <c r="H10">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>100</v>
@@ -1322,25 +1474,25 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="H11">
         <v>0.01</v>
       </c>
       <c r="I11">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J11">
         <v>300</v>
@@ -1348,13 +1500,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1366,7 +1518,7 @@
         <v>0.01</v>
       </c>
       <c r="I12">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J12">
         <v>300</v>
@@ -1374,13 +1526,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1400,25 +1552,25 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="H14">
         <v>0.01</v>
       </c>
       <c r="I14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J14">
         <v>300</v>
@@ -1429,22 +1581,22 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="H15">
         <v>0.01</v>
       </c>
       <c r="I15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J15">
         <v>300</v>
@@ -1452,13 +1604,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1467,7 +1619,7 @@
         <v>10000</v>
       </c>
       <c r="H16">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I16">
         <v>100</v>
@@ -1478,25 +1630,25 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="H17">
         <v>0.1</v>
       </c>
       <c r="I17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J17">
         <v>300</v>
@@ -1504,21 +1656,73 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>10000</v>
+      </c>
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+      <c r="I18">
+        <v>200</v>
+      </c>
+      <c r="J18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
         <v>32</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>1000</v>
       </c>
-      <c r="H18">
+      <c r="H19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>500</v>
+      </c>
+      <c r="F20">
+        <v>1E-3</v>
+      </c>
+      <c r="G20">
+        <v>0.01</v>
+      </c>
+      <c r="H20">
         <v>0.01</v>
       </c>
     </row>
@@ -1529,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EB3A90-DDA6-4778-8302-DAD5F7252115}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1544,7 +1748,7 @@
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1570,36 +1774,39 @@
         <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
-        <v>71</v>
-      </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
-        <v>77</v>
-      </c>
       <c r="Q1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1620,18 +1827,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1639,36 +1846,36 @@
       <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>0.05</v>
-      </c>
-      <c r="M3">
-        <f>1/60</f>
-        <v>1.6666666666666666E-2</v>
       </c>
       <c r="N3">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1676,25 +1883,25 @@
       <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>0.05</v>
-      </c>
-      <c r="M4">
-        <f>1/60</f>
-        <v>1.6666666666666666E-2</v>
       </c>
       <c r="N4">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1705,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1714,10 +1921,10 @@
         <v>36</v>
       </c>
       <c r="H5">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1728,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1737,10 +1944,10 @@
         <v>39</v>
       </c>
       <c r="H6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1751,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1759,10 +1966,16 @@
       <c r="G7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>0.4</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1780,9 +1993,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1794,21 +2007,21 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1829,29 +2042,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1860,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1869,9 +2082,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -1880,38 +2093,38 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -1929,9 +2142,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -1940,21 +2153,22 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="J16">
+        <f>270/0.1</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -1972,12 +2186,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1989,166 +2203,189 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H18">
         <v>0.9</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19">
+        <v>6</v>
+      </c>
+      <c r="R19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
         <v>79</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19">
-        <v>5000</v>
-      </c>
-      <c r="F19">
-        <v>500</v>
-      </c>
-      <c r="G19" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19">
-        <v>600</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
         <v>80</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20">
-        <v>5000</v>
-      </c>
-      <c r="F20">
-        <v>500</v>
-      </c>
-      <c r="G20" t="s">
-        <v>82</v>
-      </c>
-      <c r="O20">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21">
-        <v>5000</v>
-      </c>
-      <c r="F21">
-        <v>500</v>
-      </c>
-      <c r="G21" t="s">
-        <v>82</v>
-      </c>
-      <c r="O21">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23">
+        <v>0.8</v>
+      </c>
+      <c r="R23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24">
+        <v>0.7</v>
+      </c>
+      <c r="R24" t="s">
         <v>104</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>5000</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>50</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24">
-        <v>0.05</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>107</v>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -2157,17 +2394,941 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB366907-93DA-4245-BEBF-19818450F8D2}">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>0.4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14">
+        <v>300</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <v>0.2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17">
+        <v>300</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26">
+        <v>1000</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27">
+        <v>1000</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28">
+        <v>1000</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29">
+        <v>1000</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30">
+        <v>1000</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30">
+        <f>270/0.1</f>
+        <v>2700</v>
+      </c>
+      <c r="J30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33">
+        <v>2.5</v>
+      </c>
+      <c r="J33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38">
+        <v>15</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40">
+        <v>1000</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41">
+        <v>1000</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41">
+        <v>0.8</v>
+      </c>
+      <c r="J41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42">
+        <v>0.2</v>
+      </c>
+      <c r="G42">
+        <v>0.05</v>
+      </c>
+      <c r="H42" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>156</v>
+      </c>
+      <c r="I43">
+        <v>6</v>
+      </c>
+      <c r="J43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>159</v>
+      </c>
+      <c r="I44">
+        <v>0.13</v>
+      </c>
+      <c r="J44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45">
+        <v>0.13</v>
+      </c>
+      <c r="J45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46">
+        <v>0.7</v>
+      </c>
+      <c r="J46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F6EB10-AB47-4D11-878D-7EA50574CBA2}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2190,1723 +3351,106 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E6B22F-D4D7-489D-AE2A-F030E504A301}">
-  <dimension ref="A1:E97"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.76644727800000001</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0.58578431366667605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.77168040699999996</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.578431372666666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0.92749999999999999</v>
-      </c>
-      <c r="E4">
-        <v>0.57107843166666605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.78214666499999996</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0.8869999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.56372549033332398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.57598039200006701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.79261292299999997</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0.87149999999999994</v>
-      </c>
-      <c r="E7">
-        <v>0.62745098066673299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>109</v>
       </c>
       <c r="B8">
-        <v>0.797846053</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0.82750000000000001</v>
-      </c>
-      <c r="E8">
-        <v>0.67892156866666598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>118</v>
       </c>
       <c r="B9">
-        <v>0.22</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0.72</v>
-      </c>
-      <c r="E9">
-        <v>0.73039215666659996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.59</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0.72</v>
-      </c>
-      <c r="E10">
-        <v>0.75735294099999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.79</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0.83949999999999991</v>
-      </c>
-      <c r="E11">
-        <v>0.73529411766666597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.83871716600000001</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.71323503563943702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.84558434000000005</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0.96500000000000008</v>
-      </c>
-      <c r="E13">
-        <v>0.69117647066663801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.85197045199999999</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="E14">
-        <v>0.67401960766665703</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0.80084982500000002</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0.96050000000000002</v>
-      </c>
-      <c r="E15">
-        <v>0.66666666666666596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0.73382039200000004</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0.99700000000000011</v>
-      </c>
-      <c r="E16">
-        <v>0.65931372566667601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0.64636604600000003</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1.0525</v>
-      </c>
-      <c r="E17">
-        <v>0.65196078466666596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0.565669058</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E18">
-        <v>0.63235242461224195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0.41</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1.1890000000000001</v>
-      </c>
-      <c r="E19">
-        <v>0.58823529366666605</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="E20">
-        <v>0.544117646666609</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>0.06</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1.046</v>
-      </c>
-      <c r="E21">
-        <v>0.49999999966666597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>0.11</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="E22">
-        <v>0.463235294000028</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0.24</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="E23">
-        <v>0.44117647066669502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0.51</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>0.9375</v>
-      </c>
-      <c r="E24">
-        <v>0.41911764699999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>0.52245193700000003</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>0.97300000000000009</v>
-      </c>
-      <c r="E25">
-        <v>0.39705908202721202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>0.76644727800000001</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0.37990196066666598</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>0.77168040699999996</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="E27">
-        <v>0.37254901966665699</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>0.92749999999999999</v>
-      </c>
-      <c r="E28">
-        <v>0.36519607866666598</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>0.78214666499999996</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>0.8869999999999999</v>
-      </c>
-      <c r="E29">
-        <v>0.357843137333342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="E30">
-        <v>0.345588235000028</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>0.87149999999999994</v>
-      </c>
-      <c r="E31">
-        <v>0.32352967002724098</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>0.24</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>0.82750000000000001</v>
-      </c>
-      <c r="E32">
-        <v>0.30147058799999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>0.22</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>0.72</v>
-      </c>
-      <c r="E33">
-        <v>0.27941176466666601</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>0.59</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0.72</v>
-      </c>
-      <c r="E34">
-        <v>0.25980392133331398</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>0.79</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>0.83949999999999991</v>
-      </c>
-      <c r="E35">
-        <v>0.24509803933333299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>0.83871716600000001</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="E36">
-        <v>0.230392157000019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>0.84558434000000005</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>0.96500000000000008</v>
-      </c>
-      <c r="E37">
-        <v>0.215686274333352</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>0.85197045199999999</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="E38">
-        <v>0.20588235299999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>0.80084982500000002</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>0.96050000000000002</v>
-      </c>
-      <c r="E39">
-        <v>0.20588235299999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>0.73382039200000004</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>0.99700000000000011</v>
-      </c>
-      <c r="E40">
-        <v>0.20588235299999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>0.64636604600000003</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1.0525</v>
-      </c>
-      <c r="E41">
-        <v>0.20588235299999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>0.565669058</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E42">
-        <v>0.19852941166666599</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>0.41</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1.1890000000000001</v>
-      </c>
-      <c r="E43">
-        <v>0.17647058800002899</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="E44">
-        <v>0.15441176466669501</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>0.06</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1.046</v>
-      </c>
-      <c r="E45">
-        <v>0.13235294100002801</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>0.11</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="E46">
-        <v>0.112745098</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>0.24</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="E47">
-        <v>9.8039215333314195E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>0.51</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>0.9375</v>
-      </c>
-      <c r="E48">
-        <v>8.3333333333314205E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>0.52245193700000003</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>0.97300000000000009</v>
-      </c>
-      <c r="E49">
-        <v>6.8627278759613206E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>0.76644727800000001</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>5.6372548666666598E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>0.77168040699999996</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="E51">
-        <v>4.90196076666762E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>0.92749999999999999</v>
-      </c>
-      <c r="E52">
-        <v>4.1666666666676198E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>0.78214666499999996</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>0.8869999999999999</v>
-      </c>
-      <c r="E53">
-        <v>3.43137256666666E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="E54">
-        <v>2.9411764999999899E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>0.79261292299999997</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>0.87149999999999994</v>
-      </c>
-      <c r="E55">
-        <v>2.9411764999999899E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>0.797846053</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>0.82750000000000001</v>
-      </c>
-      <c r="E56">
-        <v>2.9411764999999899E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>0.22</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>0.72</v>
-      </c>
-      <c r="E57">
-        <v>2.9411764999999899E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>0.59</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>0.72</v>
-      </c>
-      <c r="E58">
-        <v>3.18627453333237E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>0.79</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>0.83949999999999991</v>
-      </c>
-      <c r="E59">
-        <v>3.9215686333323702E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>0.83871716600000001</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="E60">
-        <v>4.65686273333333E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>0.84558434000000005</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>0.96500000000000008</v>
-      </c>
-      <c r="E61">
-        <v>5.3921568333342898E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>0.85197045199999999</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="E62">
-        <v>6.1274423546486503E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>0.80084982500000002</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>0.96050000000000002</v>
-      </c>
-      <c r="E63">
-        <v>6.8627451333342901E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>0.73382039200000004</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>0.99700000000000011</v>
-      </c>
-      <c r="E64">
-        <v>7.5980392333333299E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>0.64636604600000003</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1.0525</v>
-      </c>
-      <c r="E65">
-        <v>8.3333333333323698E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>0.565669058</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E66">
-        <v>8.5784313666666598E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>0.41</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1.1890000000000001</v>
-      </c>
-      <c r="E67">
-        <v>7.8431372666666596E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="E68">
-        <v>7.1078517786844597E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>0.06</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1.046</v>
-      </c>
-      <c r="E69">
-        <v>6.3725490333323795E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>0.11</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="E70">
-        <v>5.8823528999999999E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>0.24</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="E71">
-        <v>5.8823528999999999E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>0.51</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>0.9375</v>
-      </c>
-      <c r="E72">
-        <v>5.8823528999999999E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>0.52245193700000003</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>0.97300000000000009</v>
-      </c>
-      <c r="E73">
-        <v>5.8823528999999999E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>0.76644727800000001</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>5.8823528999999999E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>0.77168040699999996</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="E75">
-        <v>5.8823528999999999E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>0.92749999999999999</v>
-      </c>
-      <c r="E76">
-        <v>5.8823528999999999E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>0.78214666499999996</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>0.8869999999999999</v>
-      </c>
-      <c r="E77">
-        <v>5.8823528999999999E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="E78">
-        <v>8.0882352666666504E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>0.79261292299999997</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>0.87149999999999994</v>
-      </c>
-      <c r="E79">
-        <v>0.14705882366657999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>0.797846053</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>0.82750000000000001</v>
-      </c>
-      <c r="E80">
-        <v>0.21323529433333299</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>0.22</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>0.72</v>
-      </c>
-      <c r="E81">
-        <v>0.27941176466666601</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>0.59</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>0.72</v>
-      </c>
-      <c r="E82">
-        <v>0.33823529433333299</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>0.79</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>0.83949999999999991</v>
-      </c>
-      <c r="E83">
-        <v>0.38235294133338998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>0.83871716600000001</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="E84">
-        <v>0.42647058833333301</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>0.84558434000000005</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>0.96500000000000008</v>
-      </c>
-      <c r="E85">
-        <v>0.47058823533327598</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>0.85197045199999999</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="E86">
-        <v>0.49264680030614999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>0.80084982500000002</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>0.96050000000000002</v>
-      </c>
-      <c r="E87">
-        <v>0.470588235000028</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>0.73382039200000004</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>0.99700000000000011</v>
-      </c>
-      <c r="E88">
-        <v>0.44852941166666599</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>0.64636604600000003</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>1.0525</v>
-      </c>
-      <c r="E89">
-        <v>0.42647058799999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>0.565669058</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E90">
-        <v>0.41176470599999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>0.41</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>1.1890000000000001</v>
-      </c>
-      <c r="E91">
-        <v>0.41176470599999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="E92">
-        <v>0.41176470599999998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>0.06</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1.046</v>
-      </c>
-      <c r="E93">
-        <v>0.41176470599999998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>0.11</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="E94">
-        <v>0.40441176466669498</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>0.24</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="E95">
-        <v>0.382352941</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>0.51</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>0.9375</v>
-      </c>
-      <c r="E96">
-        <v>0.36029411766666603</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>0.52245193700000003</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>0.97300000000000009</v>
-      </c>
-      <c r="E97">
-        <v>0.33823529399997099</v>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3915,33 +3459,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB42B24B-1FF3-4D04-ABC3-37C8B4C6ACE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E6B22F-D4D7-489D-AE2A-F030E504A301}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3949,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.91973673359999997</v>
+        <v>0.76644727800000001</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3958,10 +3502,9 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.59769340231754298</v>
+        <v>0.58578431366667605</v>
       </c>
       <c r="F2">
-        <f>MIN(1,MAX(0,B2*(1+0.2*COS(A2*PI()/9))))</f>
         <v>1</v>
       </c>
     </row>
@@ -3970,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.91670888381259319</v>
+        <v>0.77168040699999996</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3979,11 +3522,10 @@
         <v>0.95250000000000001</v>
       </c>
       <c r="E3">
-        <v>0.59046130291978205</v>
+        <v>0.578431372666666</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">MIN(1,MAX(0,B3*(1+0.2*COS(A3*PI()/9))))</f>
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3991,7 +3533,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.87874517313133227</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4000,11 +3542,10 @@
         <v>0.92749999999999999</v>
       </c>
       <c r="E4">
-        <v>0.59813485581324999</v>
+        <v>0.57107843166666605</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4012,6 +3553,1976 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.78214666499999996</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.8869999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.56372549033332398</v>
+      </c>
+      <c r="F5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.57598039200006701</v>
+      </c>
+      <c r="F6">
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.79261292299999997</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.87149999999999994</v>
+      </c>
+      <c r="E7">
+        <v>0.62745098066673299</v>
+      </c>
+      <c r="F7">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.797846053</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.67892156866666598</v>
+      </c>
+      <c r="F8">
+        <v>0.87999999999999989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.22</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.72</v>
+      </c>
+      <c r="E9">
+        <v>0.73039215666659996</v>
+      </c>
+      <c r="F9">
+        <v>0.85999999999999988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.59</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.72</v>
+      </c>
+      <c r="E10">
+        <v>0.75735294099999995</v>
+      </c>
+      <c r="F10">
+        <v>0.83999999999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.79</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.83949999999999991</v>
+      </c>
+      <c r="E11">
+        <v>0.73529411766666597</v>
+      </c>
+      <c r="F11">
+        <v>0.81999999999999984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.83871716600000001</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.71323503563943702</v>
+      </c>
+      <c r="F12">
+        <v>0.79999999999999982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.84558434000000005</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.96500000000000008</v>
+      </c>
+      <c r="E13">
+        <v>0.69117647066663801</v>
+      </c>
+      <c r="F13">
+        <v>0.7799999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.85197045199999999</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="E14">
+        <v>0.67401960766665703</v>
+      </c>
+      <c r="F14">
+        <v>0.75999999999999979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.80084982500000002</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="F15">
+        <v>0.73999999999999977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.73382039200000004</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.99700000000000011</v>
+      </c>
+      <c r="E16">
+        <v>0.65931372566667601</v>
+      </c>
+      <c r="F16">
+        <v>0.71999999999999975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.64636604600000003</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1.0525</v>
+      </c>
+      <c r="E17">
+        <v>0.65196078466666596</v>
+      </c>
+      <c r="F17">
+        <v>0.69999999999999973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.565669058</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.63235242461224195</v>
+      </c>
+      <c r="F18">
+        <v>0.67999999999999972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.41</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.58823529366666605</v>
+      </c>
+      <c r="F19">
+        <v>0.6599999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.544117646666609</v>
+      </c>
+      <c r="F20">
+        <v>0.63999999999999968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.06</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1.046</v>
+      </c>
+      <c r="E21">
+        <v>0.49999999966666597</v>
+      </c>
+      <c r="F21">
+        <v>0.61999999999999966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.11</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E22">
+        <v>0.463235294000028</v>
+      </c>
+      <c r="F22">
+        <v>0.59999999999999964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.24</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.44117647066669502</v>
+      </c>
+      <c r="F23">
+        <v>0.57999999999999963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.51</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.9375</v>
+      </c>
+      <c r="E24">
+        <v>0.41911764699999998</v>
+      </c>
+      <c r="F24">
+        <v>0.55999999999999961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.52245193700000003</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.97300000000000009</v>
+      </c>
+      <c r="E25">
+        <v>0.39705908202721202</v>
+      </c>
+      <c r="F25">
+        <v>0.53999999999999959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.76644727800000001</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0.37990196066666598</v>
+      </c>
+      <c r="F26">
+        <v>0.51999999999999957</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.77168040699999996</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.37254901966665699</v>
+      </c>
+      <c r="F27">
+        <v>0.49999999999999956</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.36519607866666598</v>
+      </c>
+      <c r="F28">
+        <v>0.47999999999999954</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.78214666499999996</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.8869999999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.357843137333342</v>
+      </c>
+      <c r="F29">
+        <v>0.45999999999999952</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.345588235000028</v>
+      </c>
+      <c r="F30">
+        <v>0.4399999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0.87149999999999994</v>
+      </c>
+      <c r="E31">
+        <v>0.32352967002724098</v>
+      </c>
+      <c r="F31">
+        <v>0.41999999999999948</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.24</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="E32">
+        <v>0.30147058799999998</v>
+      </c>
+      <c r="F32">
+        <v>0.39999999999999947</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.22</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.72</v>
+      </c>
+      <c r="E33">
+        <v>0.27941176466666601</v>
+      </c>
+      <c r="F33">
+        <v>0.37999999999999945</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.59</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.72</v>
+      </c>
+      <c r="E34">
+        <v>0.25980392133331398</v>
+      </c>
+      <c r="F34">
+        <v>0.35999999999999943</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.79</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.83949999999999991</v>
+      </c>
+      <c r="E35">
+        <v>0.24509803933333299</v>
+      </c>
+      <c r="F35">
+        <v>0.33999999999999941</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.83871716600000001</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="E36">
+        <v>0.230392157000019</v>
+      </c>
+      <c r="F36">
+        <v>0.3199999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.84558434000000005</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.96500000000000008</v>
+      </c>
+      <c r="E37">
+        <v>0.215686274333352</v>
+      </c>
+      <c r="F37">
+        <v>0.29999999999999938</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.85197045199999999</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="E38">
+        <v>0.20588235299999999</v>
+      </c>
+      <c r="F38">
+        <v>0.27999999999999936</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.80084982500000002</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="E39">
+        <v>0.20588235299999999</v>
+      </c>
+      <c r="F39">
+        <v>0.25999999999999934</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.73382039200000004</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.99700000000000011</v>
+      </c>
+      <c r="E40">
+        <v>0.20588235299999999</v>
+      </c>
+      <c r="F40">
+        <v>0.23999999999999935</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.64636604600000003</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1.0525</v>
+      </c>
+      <c r="E41">
+        <v>0.20588235299999999</v>
+      </c>
+      <c r="F41">
+        <v>0.21999999999999936</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.565669058</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E42">
+        <v>0.19852941166666599</v>
+      </c>
+      <c r="F42">
+        <v>0.19999999999999937</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.41</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="E43">
+        <v>0.17647058800002899</v>
+      </c>
+      <c r="F43">
+        <v>0.17999999999999938</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.15441176466669501</v>
+      </c>
+      <c r="F44">
+        <v>0.15999999999999939</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.06</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1.046</v>
+      </c>
+      <c r="E45">
+        <v>0.13235294100002801</v>
+      </c>
+      <c r="F45">
+        <v>0.1399999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.11</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E46">
+        <v>0.112745098</v>
+      </c>
+      <c r="F46">
+        <v>0.1199999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.24</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="E47">
+        <v>9.8039215333314195E-2</v>
+      </c>
+      <c r="F47">
+        <v>9.9999999999999395E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.51</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0.9375</v>
+      </c>
+      <c r="E48">
+        <v>8.3333333333314205E-2</v>
+      </c>
+      <c r="F48">
+        <v>7.9999999999999391E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.52245193700000003</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0.97300000000000009</v>
+      </c>
+      <c r="E49">
+        <v>6.8627278759613206E-2</v>
+      </c>
+      <c r="F49">
+        <v>5.9999999999999387E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.76644727800000001</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>5.6372548666666598E-2</v>
+      </c>
+      <c r="F50">
+        <v>3.9999999999999383E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.77168040699999996</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="E51">
+        <v>4.90196076666762E-2</v>
+      </c>
+      <c r="F51">
+        <v>1.9999999999999383E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="E52">
+        <v>4.1666666666676198E-2</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.78214666499999996</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0.8869999999999999</v>
+      </c>
+      <c r="E53">
+        <v>3.43137256666666E-2</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="E54">
+        <v>2.9411764999999899E-2</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.79261292299999997</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0.87149999999999994</v>
+      </c>
+      <c r="E55">
+        <v>2.9411764999999899E-2</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.797846053</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="E56">
+        <v>2.9411764999999899E-2</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.22</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0.72</v>
+      </c>
+      <c r="E57">
+        <v>2.9411764999999899E-2</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.59</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0.72</v>
+      </c>
+      <c r="E58">
+        <v>3.18627453333237E-2</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.79</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0.83949999999999991</v>
+      </c>
+      <c r="E59">
+        <v>3.9215686333323702E-2</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.83871716600000001</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="E60">
+        <v>4.65686273333333E-2</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.84558434000000005</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0.96500000000000008</v>
+      </c>
+      <c r="E61">
+        <v>5.3921568333342898E-2</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.85197045199999999</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="E62">
+        <v>6.1274423546486503E-2</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.80084982500000002</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="E63">
+        <v>6.8627451333342901E-2</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.73382039200000004</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0.99700000000000011</v>
+      </c>
+      <c r="E64">
+        <v>7.5980392333333299E-2</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.64636604600000003</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1.0525</v>
+      </c>
+      <c r="E65">
+        <v>8.3333333333323698E-2</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.565669058</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E66">
+        <v>8.5784313666666598E-2</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.41</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="E67">
+        <v>7.8431372666666596E-2</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="E68">
+        <v>7.1078517786844597E-2</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.06</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1.046</v>
+      </c>
+      <c r="E69">
+        <v>6.3725490333323795E-2</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.11</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E70">
+        <v>5.8823528999999999E-2</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.24</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="E71">
+        <v>5.8823528999999999E-2</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.51</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0.9375</v>
+      </c>
+      <c r="E72">
+        <v>5.8823528999999999E-2</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.52245193700000003</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0.97300000000000009</v>
+      </c>
+      <c r="E73">
+        <v>5.8823528999999999E-2</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.76644727800000001</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>5.8823528999999999E-2</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.77168040699999996</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="E75">
+        <v>5.8823528999999999E-2</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="E76">
+        <v>5.8823528999999999E-2</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.78214666499999996</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0.8869999999999999</v>
+      </c>
+      <c r="E77">
+        <v>5.8823528999999999E-2</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="E78">
+        <v>8.0882352666666504E-2</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.79261292299999997</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0.87149999999999994</v>
+      </c>
+      <c r="E79">
+        <v>0.14705882366657999</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.797846053</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="E80">
+        <v>0.21323529433333299</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.22</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0.72</v>
+      </c>
+      <c r="E81">
+        <v>0.27941176466666601</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.59</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0.72</v>
+      </c>
+      <c r="E82">
+        <v>0.33823529433333299</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.79</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0.83949999999999991</v>
+      </c>
+      <c r="E83">
+        <v>0.38235294133338998</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.83871716600000001</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="E84">
+        <v>0.42647058833333301</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.84558434000000005</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0.96500000000000008</v>
+      </c>
+      <c r="E85">
+        <v>0.47058823533327598</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.85197045199999999</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="E86">
+        <v>0.49264680030614999</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.80084982500000002</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="E87">
+        <v>0.470588235000028</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.73382039200000004</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0.99700000000000011</v>
+      </c>
+      <c r="E88">
+        <v>0.44852941166666599</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.64636604600000003</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1.0525</v>
+      </c>
+      <c r="E89">
+        <v>0.42647058799999998</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.565669058</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E90">
+        <v>0.41176470599999998</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.41</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="E91">
+        <v>0.41176470599999998</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="E92">
+        <v>0.41176470599999998</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.06</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1.046</v>
+      </c>
+      <c r="E93">
+        <v>0.41176470599999998</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.11</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E94">
+        <v>0.40441176466669498</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.24</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="E95">
+        <v>0.382352941</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.51</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0.9375</v>
+      </c>
+      <c r="E96">
+        <v>0.36029411766666603</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.52245193700000003</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0.97300000000000009</v>
+      </c>
+      <c r="E97">
+        <v>0.33823529399997099</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB42B24B-1FF3-4D04-ABC3-37C8B4C6ACE7}">
+  <dimension ref="A1:G97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.91973673359999997</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.59769340231754298</v>
+      </c>
+      <c r="F2">
+        <f>MIN(1,MAX(0,B2*(1+0.2*COS(A2*PI()/9))))</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.91670888381259319</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.59046130291978205</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">MIN(1,MAX(0,B3*(1+0.2*COS(A3*PI()/9))))</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.87874517313133227</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.59813485581324999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0.86036133150000005</v>
       </c>
       <c r="C5">
@@ -4027,8 +5538,11 @@
         <f t="shared" si="0"/>
         <v>0.94639746465000008</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4048,8 +5562,11 @@
         <f t="shared" si="0"/>
         <v>0.86830965452600495</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4069,8 +5586,11 @@
         <f t="shared" si="0"/>
         <v>0.73851461529266349</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4090,8 +5610,11 @@
         <f t="shared" si="0"/>
         <v>0.64625530293</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>0.87999999999999989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4111,8 +5634,11 @@
         <f t="shared" si="0"/>
         <v>0.15775214098726445</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0.85999999999999988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4132,8 +5658,11 @@
         <f t="shared" si="0"/>
         <v>0.38907186592332949</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>0.83999999999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4153,8 +5682,11 @@
         <f t="shared" si="0"/>
         <v>0.50560000000000016</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>0.81999999999999984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4174,8 +5706,11 @@
         <f t="shared" si="0"/>
         <v>0.55308686908058802</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>0.79999999999999982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4195,8 +5730,11 @@
         <f t="shared" si="0"/>
         <v>0.60633063645592244</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>0.7799999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4216,8 +5754,11 @@
         <f t="shared" si="0"/>
         <v>0.69009606611999985</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>0.75999999999999979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4237,8 +5778,11 @@
         <f t="shared" si="0"/>
         <v>0.74618932300334428</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>0.73999999999999977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4258,8 +5802,11 @@
         <f t="shared" si="0"/>
         <v>0.78567611721536035</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>0.71999999999999975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4279,8 +5826,11 @@
         <f t="shared" si="0"/>
         <v>0.78210291565999979</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>0.69999999999999973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4300,8 +5850,11 @@
         <f t="shared" si="0"/>
         <v>0.75227804259178421</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>0.67999999999999972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4321,8 +5874,11 @@
         <f t="shared" si="0"/>
         <v>0.57859115424246443</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>0.6599999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4342,8 +5898,11 @@
         <f t="shared" si="0"/>
         <v>0.4032</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>0.63999999999999968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4363,8 +5922,11 @@
         <f t="shared" si="0"/>
         <v>8.4671876230604584E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>0.61999999999999966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4384,8 +5946,11 @@
         <f t="shared" si="0"/>
         <v>0.14628798148810232</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>0.59999999999999964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4405,8 +5970,11 @@
         <f t="shared" si="0"/>
         <v>0.29039999999999994</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>0.57999999999999963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4426,8 +5994,11 @@
         <f t="shared" si="0"/>
         <v>0.54603936351203786</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>0.55999999999999961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4447,8 +6018,11 @@
         <f t="shared" si="0"/>
         <v>0.48679296043027293</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>0.53999999999999959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4468,8 +6042,11 @@
         <f t="shared" si="0"/>
         <v>0.62082229518000021</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>0.51999999999999957</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4489,8 +6066,11 @@
         <f t="shared" si="0"/>
         <v>0.55333743800987989</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>0.49999999999999956</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4510,8 +6090,11 @@
         <f t="shared" si="0"/>
         <v>0.5024962064975883</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>0.47999999999999954</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4531,8 +6114,11 @@
         <f t="shared" si="0"/>
         <v>0.50057386560000006</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>0.45999999999999952</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4552,8 +6138,11 @@
         <f t="shared" si="0"/>
         <v>0.53480895468444112</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>0.4399999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4573,8 +6162,11 @@
         <f t="shared" si="0"/>
         <v>0.568347207170108</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>0.41999999999999948</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4594,8 +6186,11 @@
         <f t="shared" si="0"/>
         <v>0.64625530292999955</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>0.39999999999999947</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4615,8 +6210,11 @@
         <f t="shared" si="0"/>
         <v>0.70464736606062806</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>0.37999999999999945</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4636,8 +6234,11 @@
         <f t="shared" si="0"/>
         <v>0.63169259700412173</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>0.35999999999999943</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4657,8 +6258,11 @@
         <f t="shared" si="0"/>
         <v>0.95590000000000019</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>0.33999999999999941</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4678,8 +6282,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>0.3199999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4699,8 +6306,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>0.29999999999999938</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4720,8 +6330,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>0.27999999999999936</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4741,8 +6354,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>0.25999999999999934</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4762,8 +6378,11 @@
         <f t="shared" si="0"/>
         <v>0.97590094473170885</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>0.23999999999999935</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4783,8 +6402,11 @@
         <f t="shared" si="0"/>
         <v>0.78210291566000045</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <v>0.21999999999999936</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4804,8 +6426,11 @@
         <f t="shared" si="0"/>
         <v>0.60564229880151743</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>0.19999999999999937</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4825,8 +6450,11 @@
         <f t="shared" si="0"/>
         <v>0.38201621937217933</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <v>0.17999999999999938</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4846,8 +6474,11 @@
         <f t="shared" si="0"/>
         <v>0.22679999999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <v>0.15999999999999939</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4867,8 +6498,11 @@
         <f t="shared" si="0"/>
         <v>4.3023311178344861E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <v>0.1399999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4888,8 +6522,11 @@
         <f t="shared" si="0"/>
         <v>7.2538822460281802E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <v>0.1199999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4909,8 +6546,11 @@
         <f t="shared" si="0"/>
         <v>0.15360000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <v>9.9999999999999395E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4930,8 +6570,11 @@
         <f t="shared" si="0"/>
         <v>0.33631635867948817</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <v>7.9999999999999391E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4951,8 +6594,11 @@
         <f t="shared" si="0"/>
         <v>0.37462687102133385</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <v>5.9999999999999387E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4972,8 +6618,11 @@
         <f t="shared" si="0"/>
         <v>0.62082229517999965</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <v>3.9999999999999383E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4993,8 +6642,11 @@
         <f t="shared" si="0"/>
         <v>0.71901080889200997</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <v>1.9999999999999383E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5014,8 +6666,11 @@
         <f t="shared" si="0"/>
         <v>0.81584704901210325</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5035,8 +6690,11 @@
         <f t="shared" si="0"/>
         <v>0.94639746465000008</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5056,8 +6714,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5077,8 +6738,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5098,8 +6762,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5119,8 +6786,11 @@
         <f t="shared" si="0"/>
         <v>0.3104635461788835</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5140,8 +6810,11 @@
         <f t="shared" si="0"/>
         <v>0.78463553707254885</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5161,8 +6834,11 @@
         <f t="shared" si="0"/>
         <v>0.95590000000000064</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5182,8 +6858,11 @@
         <f t="shared" si="0"/>
         <v>0.89798546566521531</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5203,8 +6882,11 @@
         <f t="shared" si="0"/>
         <v>0.78787056762712093</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5224,8 +6906,11 @@
         <f t="shared" si="0"/>
         <v>0.69009606612000085</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5245,8 +6930,11 @@
         <f t="shared" si="0"/>
         <v>0.57425352046830014</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5266,8 +6954,11 @@
         <f t="shared" si="0"/>
         <v>0.48391333757293092</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5287,8 +6978,11 @@
         <f t="shared" si="0"/>
         <v>0.41367426944000008</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5308,8 +7002,11 @@
         <f t="shared" si="0"/>
         <v>0.37302697608669838</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5329,8 +7026,11 @@
         <f t="shared" ref="F67:F97" si="1">MIN(1,MAX(0,B67*(1+0.2*COS(A67*PI()/9))))</f>
         <v>0.29399262638535623</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5350,8 +7050,11 @@
         <f t="shared" si="1"/>
         <v>0.22680000000000017</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5371,8 +7074,11 @@
         <f t="shared" si="1"/>
         <v>5.5904812591050519E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5392,8 +7098,11 @@
         <f t="shared" si="1"/>
         <v>0.11777319605161596</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5413,8 +7122,11 @@
         <f t="shared" si="1"/>
         <v>0.29040000000000005</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5434,8 +7146,11 @@
         <f t="shared" si="1"/>
         <v>0.67824427780847418</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5455,8 +7170,11 @@
         <f t="shared" si="1"/>
         <v>0.73728309576839357</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5476,8 +7194,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5497,8 +7218,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5518,8 +7242,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5539,8 +7266,11 @@
         <f t="shared" si="1"/>
         <v>0.94639746465000041</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5560,8 +7290,11 @@
         <f t="shared" si="1"/>
         <v>0.86830965452600573</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5581,8 +7314,11 @@
         <f t="shared" si="1"/>
         <v>0.73851461529266327</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5602,8 +7338,11 @@
         <f t="shared" si="1"/>
         <v>0.64625530293000089</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5623,8 +7362,11 @@
         <f t="shared" si="1"/>
         <v>0.15775214098726445</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5644,8 +7386,11 @@
         <f t="shared" si="1"/>
         <v>0.3890718659233296</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5665,8 +7410,11 @@
         <f t="shared" si="1"/>
         <v>0.50560000000000016</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5686,8 +7434,11 @@
         <f t="shared" si="1"/>
         <v>0.55308686908058757</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5707,8 +7458,11 @@
         <f t="shared" si="1"/>
         <v>0.60633063645592278</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5728,8 +7482,11 @@
         <f t="shared" si="1"/>
         <v>0.6900960661200003</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5749,8 +7506,11 @@
         <f t="shared" si="1"/>
         <v>0.74618932300334451</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5770,8 +7530,11 @@
         <f t="shared" si="1"/>
         <v>0.78567611721535968</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5791,8 +7554,11 @@
         <f t="shared" si="1"/>
         <v>0.78210291565999923</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5812,8 +7578,11 @@
         <f t="shared" si="1"/>
         <v>0.75227804259178366</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5833,8 +7602,11 @@
         <f t="shared" si="1"/>
         <v>0.57859115424246443</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5854,8 +7626,11 @@
         <f t="shared" si="1"/>
         <v>0.4032</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5875,8 +7650,11 @@
         <f t="shared" si="1"/>
         <v>8.4671876230604584E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5896,8 +7674,11 @@
         <f t="shared" si="1"/>
         <v>0.14628798148810238</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5917,8 +7698,11 @@
         <f t="shared" si="1"/>
         <v>0.29040000000000027</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5938,8 +7722,11 @@
         <f t="shared" si="1"/>
         <v>0.54603936351203664</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5958,6 +7745,9 @@
       <c r="F97">
         <f t="shared" si="1"/>
         <v>0.48679296043027337</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5966,12 +7756,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068757AD89D0841429F5831BBC6267AC1" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e521892cf07d8fee7d1fab9fe3aaa83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="78e0c6f3-9112-4e2d-9710-8a99a0c0b95c" xmlns:ns4="53f6e7f0-9e34-4545-9b50-e54ccadfb78a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ffc55c83d6521c05fad87c69f289641" ns3:_="" ns4:_="">
     <xsd:import namespace="78e0c6f3-9112-4e2d-9710-8a99a0c0b95c"/>
@@ -6180,6 +7964,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6190,15 +7980,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B20FA7CB-4913-4ED5-B2A6-1FAA15DCEB4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1016DCAE-9D9F-40DE-A38A-1587953D2A7E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6217,6 +7998,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B20FA7CB-4913-4ED5-B2A6-1FAA15DCEB4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78762D46-3C96-44E4-BFC9-B88DF736E950}">
   <ds:schemaRefs>

--- a/data_example2.xlsx
+++ b/data_example2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsven\code\hybrid_energy_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5A1840-FAA3-4DA2-BF3A-89A6DC14AA95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34B2199-15BD-4AB0-966C-47AA0AD7097D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11508" yWindow="276" windowWidth="15336" windowHeight="16356" activeTab="3" xr2:uid="{67DC4D86-39E4-4DA3-B21D-C0F42277600B}"/>
+    <workbookView xWindow="4836" yWindow="1152" windowWidth="17280" windowHeight="10872" activeTab="3" xr2:uid="{67DC4D86-39E4-4DA3-B21D-C0F42277600B}"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="168">
   <si>
     <t>id</t>
   </si>
@@ -395,9 +395,6 @@
     <t>co2_tax</t>
   </si>
   <si>
-    <t>$/kgCO2</t>
-  </si>
-  <si>
     <t>seawater inlet</t>
   </si>
   <si>
@@ -524,7 +521,28 @@
     <t>forecast_timesteps</t>
   </si>
   <si>
-    <t>number of timesteps in planning horizon (6 hours)</t>
+    <t>1/60 = full power in 60 minutes</t>
+  </si>
+  <si>
+    <t>wells</t>
+  </si>
+  <si>
+    <t>water wells</t>
+  </si>
+  <si>
+    <t>startupDelay</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>number of timesteps in planning horizon</t>
+  </si>
+  <si>
+    <t>slightly more than gt1 to give preference to gt1</t>
+  </si>
+  <si>
+    <t>$/kgCO2 (40 eur per tonne)</t>
   </si>
 </sst>
 </file>
@@ -895,7 +913,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,7 +1012,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1196,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A70904-C380-433D-9493-9658C938F213}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1451,7 +1469,7 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -1474,13 +1492,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1489,7 +1507,7 @@
         <v>10000</v>
       </c>
       <c r="H11">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>100</v>
@@ -1500,13 +1518,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1518,7 +1536,7 @@
         <v>0.01</v>
       </c>
       <c r="I12">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J12">
         <v>300</v>
@@ -1526,13 +1544,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1544,7 +1562,7 @@
         <v>0.01</v>
       </c>
       <c r="I13">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J13">
         <v>300</v>
@@ -1552,13 +1570,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1578,13 +1596,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1596,7 +1614,7 @@
         <v>0.01</v>
       </c>
       <c r="I15">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J15">
         <v>300</v>
@@ -1607,10 +1625,10 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1622,7 +1640,7 @@
         <v>0.01</v>
       </c>
       <c r="I16">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J16">
         <v>300</v>
@@ -1630,13 +1648,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1645,7 +1663,7 @@
         <v>10000</v>
       </c>
       <c r="H17">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I17">
         <v>100</v>
@@ -1656,10 +1674,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
         <v>59</v>
@@ -1674,7 +1692,7 @@
         <v>0.1</v>
       </c>
       <c r="I18">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J18">
         <v>300</v>
@@ -1682,47 +1700,73 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="H19">
-        <v>0.01</v>
+        <v>0.1</v>
+      </c>
+      <c r="I19">
+        <v>200</v>
+      </c>
+      <c r="J19">
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="H20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>79</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>500</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>1E-3</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>0.01</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>0.01</v>
       </c>
     </row>
@@ -2223,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19">
         <v>15</v>
@@ -2370,7 +2414,7 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2382,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P25">
         <v>0.7</v>
@@ -2395,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB366907-93DA-4245-BEBF-19818450F8D2}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2436,10 +2480,10 @@
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -2476,7 +2520,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2491,7 +2535,7 @@
         <v>37</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2500,7 +2544,7 @@
         <v>40</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2508,7 +2552,7 @@
         <v>41</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2527,6 +2571,9 @@
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
+      <c r="J6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
@@ -2538,62 +2585,67 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>88</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>65</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
-      <c r="G8">
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>40</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
       <c r="I9">
-        <v>1</v>
+        <v>2.36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I10">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I11">
-        <f>1/60</f>
-        <v>1.6666666666666666E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12">
         <f>1/60</f>
@@ -2601,326 +2653,300 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13">
-        <v>1000</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="I13">
-        <v>0.4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>148</v>
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15">
+        <v>0.4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16">
+        <v>300</v>
+      </c>
+      <c r="J16" t="s">
         <v>146</v>
       </c>
-      <c r="I14">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18">
+        <v>0.2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19">
         <v>300</v>
       </c>
-      <c r="J14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H15" s="2" t="s">
+      <c r="J19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="I15">
-        <v>20</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16">
-        <v>1000</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16">
-        <v>0.2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H17" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17">
-        <v>300</v>
-      </c>
-      <c r="J17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I18">
-        <v>20</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19">
-        <v>1000</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20">
-        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
         <v>128</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>5</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22">
-        <v>20</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>158</v>
-      </c>
-      <c r="I22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H23" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
+        <v>157</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
+      <c r="H25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F26">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="F27">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="F28">
         <v>1000</v>
@@ -2931,19 +2957,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="F29">
         <v>1000</v>
@@ -2954,19 +2980,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="F30">
         <v>1000</v>
@@ -2974,132 +3000,138 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" t="s">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31">
+        <v>1000</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32">
+        <v>1000</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
         <v>58</v>
       </c>
-      <c r="I30">
+      <c r="I32">
         <f>270/0.1</f>
         <v>2700</v>
       </c>
-      <c r="J30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31">
+      <c r="J32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33">
         <v>0</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>88</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>14</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>42</v>
       </c>
-      <c r="F31">
+      <c r="F33">
         <v>4</v>
       </c>
-      <c r="G31">
+      <c r="G33">
         <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H33" t="s">
-        <v>71</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F34">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I34">
-        <v>6</v>
-      </c>
-      <c r="J34" t="s">
-        <v>144</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H35" t="s">
-        <v>158</v>
-      </c>
-      <c r="I35" t="s">
-        <v>56</v>
+        <v>71</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
         <v>76</v>
@@ -3122,7 +3154,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I37" t="s">
         <v>56</v>
@@ -3130,16 +3162,16 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
         <v>76</v>
@@ -3157,12 +3189,12 @@
         <v>6</v>
       </c>
       <c r="J38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I39" t="s">
         <v>56</v>
@@ -3170,57 +3202,42 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F40">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
+      <c r="H40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+      <c r="J40" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41">
-        <v>1000</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
       <c r="H41" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41">
-        <v>0.8</v>
-      </c>
-      <c r="J41" t="s">
-        <v>151</v>
+        <v>157</v>
+      </c>
+      <c r="I41" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -3228,93 +3245,148 @@
         <v>140</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="s">
         <v>80</v>
       </c>
       <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42">
+        <v>1000</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43">
+        <v>1000</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43">
+        <v>0.8</v>
+      </c>
+      <c r="J43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
         <v>98</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E44" t="s">
         <v>99</v>
       </c>
-      <c r="F42">
-        <v>0.13</v>
-      </c>
-      <c r="G42">
-        <v>0.13</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="F44">
+        <v>1.3</v>
+      </c>
+      <c r="G44">
+        <v>1.3</v>
+      </c>
+      <c r="H44" t="s">
         <v>39</v>
       </c>
-      <c r="I42">
+      <c r="I44">
         <v>0.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H43" t="s">
-        <v>152</v>
-      </c>
-      <c r="I43">
-        <v>6</v>
-      </c>
-      <c r="J43" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H44" t="s">
-        <v>155</v>
-      </c>
-      <c r="I44">
-        <v>0.13</v>
-      </c>
-      <c r="J44" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H45" t="s">
+        <v>151</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>154</v>
+      </c>
+      <c r="I46">
+        <v>1.3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
         <v>71</v>
       </c>
-      <c r="I45">
-        <v>0.13</v>
-      </c>
-      <c r="J45" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="I47">
+        <v>1.3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" t="s">
         <v>119</v>
       </c>
-      <c r="E46" t="s">
-        <v>120</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
         <v>0</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H48" t="s">
         <v>50</v>
       </c>
-      <c r="I46">
+      <c r="I48">
         <v>0.7</v>
       </c>
-      <c r="J46" t="s">
-        <v>143</v>
+      <c r="J48" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3328,7 +3400,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3365,10 +3437,10 @@
         <v>53</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3384,13 +3456,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3398,10 +3470,10 @@
         <v>117</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>0.04</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -9884,21 +9956,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068757AD89D0841429F5831BBC6267AC1" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e521892cf07d8fee7d1fab9fe3aaa83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="78e0c6f3-9112-4e2d-9710-8a99a0c0b95c" xmlns:ns4="53f6e7f0-9e34-4545-9b50-e54ccadfb78a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ffc55c83d6521c05fad87c69f289641" ns3:_="" ns4:_="">
     <xsd:import namespace="78e0c6f3-9112-4e2d-9710-8a99a0c0b95c"/>
@@ -10107,24 +10164,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78762D46-3C96-44E4-BFC9-B88DF736E950}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B20FA7CB-4913-4ED5-B2A6-1FAA15DCEB4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1016DCAE-9D9F-40DE-A38A-1587953D2A7E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10141,4 +10196,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B20FA7CB-4913-4ED5-B2A6-1FAA15DCEB4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78762D46-3C96-44E4-BFC9-B88DF736E950}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data_example2.xlsx
+++ b/data_example2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsven\code\hybrid_energy_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34B2199-15BD-4AB0-966C-47AA0AD7097D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A96964-CC16-4BB9-87F0-F7F434641A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4836" yWindow="1152" windowWidth="17280" windowHeight="10872" activeTab="3" xr2:uid="{67DC4D86-39E4-4DA3-B21D-C0F42277600B}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="11076" activeTab="3" xr2:uid="{67DC4D86-39E4-4DA3-B21D-C0F42277600B}"/>
   </bookViews>
   <sheets>
     <sheet name="node" sheetId="1" r:id="rId1"/>
@@ -521,9 +521,6 @@
     <t>forecast_timesteps</t>
   </si>
   <si>
-    <t>1/60 = full power in 60 minutes</t>
-  </si>
-  <si>
     <t>wells</t>
   </si>
   <si>
@@ -543,6 +540,9 @@
   </si>
   <si>
     <t>$/kgCO2 (40 eur per tonne)</t>
+  </si>
+  <si>
+    <t>0.5=50% of ull load per minute</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1469,7 +1469,7 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -1495,7 +1495,7 @@
         <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
         <v>80</v>
@@ -2442,7 +2442,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2538,7 +2538,7 @@
         <v>25</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
         <v>40</v>
@@ -2568,11 +2568,10 @@
         <v>67</v>
       </c>
       <c r="I6">
-        <f>1/60</f>
-        <v>1.6666666666666666E-2</v>
+        <v>0.5</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2580,19 +2579,18 @@
         <v>68</v>
       </c>
       <c r="I7">
-        <f>1/60</f>
-        <v>1.6666666666666666E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
         <v>163</v>
-      </c>
-      <c r="I8">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2615,7 +2613,7 @@
         <v>25</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
         <v>40</v>
@@ -2624,7 +2622,7 @@
         <v>2.36</v>
       </c>
       <c r="J9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2648,8 +2646,7 @@
         <v>67</v>
       </c>
       <c r="I12">
-        <f>1/60</f>
-        <v>1.6666666666666666E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2657,19 +2654,18 @@
         <v>68</v>
       </c>
       <c r="I13">
-        <f>1/60</f>
-        <v>1.6666666666666666E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
         <v>163</v>
-      </c>
-      <c r="I14">
-        <v>15</v>
-      </c>
-      <c r="J14" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -3128,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s">
         <v>73</v>
@@ -3168,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D38" t="s">
         <v>74</v>
@@ -3208,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
         <v>75</v>
@@ -3365,10 +3361,10 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" t="s">
         <v>161</v>
-      </c>
-      <c r="D48" t="s">
-        <v>162</v>
       </c>
       <c r="E48" t="s">
         <v>119</v>
@@ -3440,7 +3436,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3473,7 +3469,7 @@
         <v>0.04</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -9956,6 +9952,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068757AD89D0841429F5831BBC6267AC1" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3e521892cf07d8fee7d1fab9fe3aaa83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="78e0c6f3-9112-4e2d-9710-8a99a0c0b95c" xmlns:ns4="53f6e7f0-9e34-4545-9b50-e54ccadfb78a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ffc55c83d6521c05fad87c69f289641" ns3:_="" ns4:_="">
     <xsd:import namespace="78e0c6f3-9112-4e2d-9710-8a99a0c0b95c"/>
@@ -10164,22 +10175,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78762D46-3C96-44E4-BFC9-B88DF736E950}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B20FA7CB-4913-4ED5-B2A6-1FAA15DCEB4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1016DCAE-9D9F-40DE-A38A-1587953D2A7E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10196,21 +10209,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B20FA7CB-4913-4ED5-B2A6-1FAA15DCEB4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78762D46-3C96-44E4-BFC9-B88DF736E950}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>